--- a/Execution Providers Tester/opset_22/Windows - DirectML/report_DmlExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/Windows - DirectML/report_DmlExecutionProvider.xlsx
@@ -6326,7 +6326,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 11:58:11</t>
+          <t>2025-08-27 12:33:00</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/Windows - DirectML/report_DmlExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/Windows - DirectML/report_DmlExecutionProvider.xlsx
@@ -6326,7 +6326,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 12:33:00</t>
+          <t>2025-08-27 16:51:23</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/Windows - DirectML/report_DmlExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/Windows - DirectML/report_DmlExecutionProvider.xlsx
@@ -6326,7 +6326,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 16:51:23</t>
+          <t>2025-08-29 10:46:52</t>
         </is>
       </c>
     </row>
